--- a/SchedulingData/dynamic14/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.92</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74.8</v>
+        <v>55.68</v>
       </c>
       <c r="E3" t="n">
-        <v>26.16</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>45.48</v>
+        <v>139.04</v>
       </c>
       <c r="E4" t="n">
-        <v>26.152</v>
+        <v>23.816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>129.5</v>
+        <v>46.2</v>
       </c>
       <c r="E5" t="n">
-        <v>22.84</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.48</v>
+        <v>55.68</v>
       </c>
       <c r="D6" t="n">
-        <v>120.78</v>
+        <v>113.38</v>
       </c>
       <c r="E6" t="n">
-        <v>23.192</v>
+        <v>22.972</v>
       </c>
     </row>
     <row r="7">
@@ -561,150 +561,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>61.6</v>
+        <v>50.2</v>
       </c>
       <c r="E7" t="n">
-        <v>25.52</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120.78</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>213.92</v>
+        <v>56.02</v>
       </c>
       <c r="E8" t="n">
-        <v>19.448</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>129.5</v>
+        <v>139.04</v>
       </c>
       <c r="D9" t="n">
-        <v>177.96</v>
+        <v>196.94</v>
       </c>
       <c r="E9" t="n">
-        <v>19.624</v>
+        <v>21.616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>213.92</v>
+        <v>113.38</v>
       </c>
       <c r="D10" t="n">
-        <v>292.84</v>
+        <v>165.48</v>
       </c>
       <c r="E10" t="n">
-        <v>15.136</v>
+        <v>18.892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>177.96</v>
+        <v>46.2</v>
       </c>
       <c r="D11" t="n">
-        <v>226.46</v>
+        <v>114.1</v>
       </c>
       <c r="E11" t="n">
-        <v>15.904</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>50.2</v>
       </c>
       <c r="D12" t="n">
-        <v>65.5</v>
+        <v>103.48</v>
       </c>
       <c r="E12" t="n">
-        <v>25.14</v>
+        <v>22.952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>196.94</v>
       </c>
       <c r="D13" t="n">
-        <v>87.78</v>
+        <v>261.36</v>
       </c>
       <c r="E13" t="n">
-        <v>25.892</v>
+        <v>17.304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61.6</v>
+        <v>261.36</v>
       </c>
       <c r="D14" t="n">
-        <v>114.94</v>
+        <v>336.92</v>
       </c>
       <c r="E14" t="n">
-        <v>22.296</v>
+        <v>13.828</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.5</v>
+        <v>114.1</v>
       </c>
       <c r="D15" t="n">
-        <v>151.72</v>
+        <v>167.56</v>
       </c>
       <c r="E15" t="n">
-        <v>21.108</v>
+        <v>18.684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>74.8</v>
+        <v>56.02</v>
       </c>
       <c r="D16" t="n">
-        <v>133.34</v>
+        <v>112.82</v>
       </c>
       <c r="E16" t="n">
-        <v>22.416</v>
+        <v>24.008</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>133.34</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>196.54</v>
+        <v>65.48</v>
       </c>
       <c r="E17" t="n">
-        <v>17.736</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>196.54</v>
+        <v>165.48</v>
       </c>
       <c r="D18" t="n">
-        <v>250.2</v>
+        <v>220.38</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>15.512</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>250.2</v>
+        <v>65.48</v>
       </c>
       <c r="D19" t="n">
-        <v>310.16</v>
+        <v>128.28</v>
       </c>
       <c r="E19" t="n">
-        <v>12.624</v>
+        <v>21.992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>151.72</v>
+        <v>103.48</v>
       </c>
       <c r="D20" t="n">
-        <v>237.28</v>
+        <v>155.86</v>
       </c>
       <c r="E20" t="n">
-        <v>17.632</v>
+        <v>18.844</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>114.94</v>
+        <v>155.86</v>
       </c>
       <c r="D21" t="n">
-        <v>160.38</v>
+        <v>250.66</v>
       </c>
       <c r="E21" t="n">
-        <v>19.392</v>
+        <v>13.984</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>87.78</v>
+        <v>112.82</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8</v>
+        <v>164.02</v>
       </c>
       <c r="E22" t="n">
-        <v>22.9</v>
+        <v>21.488</v>
       </c>
     </row>
     <row r="23">
@@ -865,169 +865,169 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>310.16</v>
+        <v>128.28</v>
       </c>
       <c r="D23" t="n">
-        <v>372.36</v>
+        <v>177.02</v>
       </c>
       <c r="E23" t="n">
-        <v>8.544</v>
+        <v>18.248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>237.28</v>
+        <v>164.02</v>
       </c>
       <c r="D24" t="n">
-        <v>292.18</v>
+        <v>212.76</v>
       </c>
       <c r="E24" t="n">
-        <v>14.252</v>
+        <v>17.744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>292.84</v>
+        <v>177.02</v>
       </c>
       <c r="D25" t="n">
-        <v>346.6</v>
+        <v>236.52</v>
       </c>
       <c r="E25" t="n">
-        <v>11.88</v>
+        <v>14.408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>226.46</v>
+        <v>236.52</v>
       </c>
       <c r="D26" t="n">
-        <v>289.16</v>
+        <v>329.38</v>
       </c>
       <c r="E26" t="n">
-        <v>11.744</v>
+        <v>10.712</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>372.36</v>
+        <v>220.38</v>
       </c>
       <c r="D27" t="n">
-        <v>409.96</v>
+        <v>259.04</v>
       </c>
       <c r="E27" t="n">
-        <v>5.424</v>
+        <v>12.776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>292.18</v>
+        <v>212.76</v>
       </c>
       <c r="D28" t="n">
-        <v>348.08</v>
+        <v>283.86</v>
       </c>
       <c r="E28" t="n">
-        <v>10.292</v>
+        <v>15.704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>346.6</v>
+        <v>259.04</v>
       </c>
       <c r="D29" t="n">
-        <v>411.68</v>
+        <v>306.24</v>
       </c>
       <c r="E29" t="n">
-        <v>8.492000000000001</v>
+        <v>8.696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>348.08</v>
+        <v>329.38</v>
       </c>
       <c r="D30" t="n">
-        <v>411.52</v>
+        <v>385.48</v>
       </c>
       <c r="E30" t="n">
-        <v>7.068</v>
+        <v>6.232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>160.38</v>
+        <v>283.86</v>
       </c>
       <c r="D31" t="n">
-        <v>212.1</v>
+        <v>360.22</v>
       </c>
       <c r="E31" t="n">
-        <v>15.36</v>
+        <v>12.688</v>
       </c>
     </row>
     <row r="32">
@@ -1036,150 +1036,150 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>289.16</v>
+        <v>306.24</v>
       </c>
       <c r="D32" t="n">
-        <v>363.56</v>
+        <v>372.66</v>
       </c>
       <c r="E32" t="n">
-        <v>7.424</v>
+        <v>4.664</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>363.56</v>
+        <v>167.56</v>
       </c>
       <c r="D33" t="n">
-        <v>436.26</v>
+        <v>213.56</v>
       </c>
       <c r="E33" t="n">
-        <v>3.784</v>
+        <v>14.724</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>153.8</v>
+        <v>213.56</v>
       </c>
       <c r="D34" t="n">
-        <v>220.1</v>
+        <v>250.82</v>
       </c>
       <c r="E34" t="n">
-        <v>18.4</v>
+        <v>12.128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>220.1</v>
+        <v>336.92</v>
       </c>
       <c r="D35" t="n">
-        <v>266.46</v>
+        <v>403.86</v>
       </c>
       <c r="E35" t="n">
-        <v>15.384</v>
+        <v>10.244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>212.1</v>
+        <v>372.66</v>
       </c>
       <c r="D36" t="n">
-        <v>273.52</v>
+        <v>439.28</v>
       </c>
       <c r="E36" t="n">
-        <v>11.328</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>411.52</v>
+        <v>439.28</v>
       </c>
       <c r="D37" t="n">
-        <v>459.98</v>
+        <v>534.42</v>
       </c>
       <c r="E37" t="n">
-        <v>4.332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>436.26</v>
+        <v>250.66</v>
       </c>
       <c r="D38" t="n">
-        <v>477.42</v>
+        <v>302.28</v>
       </c>
       <c r="E38" t="n">
-        <v>1.288</v>
+        <v>9.952</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>477.42</v>
+        <v>250.82</v>
       </c>
       <c r="D39" t="n">
-        <v>566.54</v>
+        <v>309.5</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1188,150 +1188,150 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>459.98</v>
+        <v>309.5</v>
       </c>
       <c r="D40" t="n">
-        <v>515.1</v>
+        <v>378.38</v>
       </c>
       <c r="E40" t="n">
-        <v>1.42</v>
+        <v>6.592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>515.1</v>
+        <v>534.42</v>
       </c>
       <c r="D41" t="n">
-        <v>584.16</v>
+        <v>570.1799999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>266.46</v>
+        <v>403.86</v>
       </c>
       <c r="D42" t="n">
-        <v>333.5</v>
+        <v>447.66</v>
       </c>
       <c r="E42" t="n">
-        <v>11.8</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>409.96</v>
+        <v>360.22</v>
       </c>
       <c r="D43" t="n">
-        <v>451.46</v>
+        <v>415.66</v>
       </c>
       <c r="E43" t="n">
-        <v>2.904</v>
+        <v>9.784000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>451.46</v>
+        <v>302.28</v>
       </c>
       <c r="D44" t="n">
-        <v>509.08</v>
+        <v>375.74</v>
       </c>
       <c r="E44" t="n">
-        <v>0.252</v>
+        <v>7.216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>509.08</v>
+        <v>415.66</v>
       </c>
       <c r="D45" t="n">
-        <v>600.1799999999999</v>
+        <v>461.82</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>7.288</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>333.5</v>
+        <v>447.66</v>
       </c>
       <c r="D46" t="n">
-        <v>382.58</v>
+        <v>500.28</v>
       </c>
       <c r="E46" t="n">
-        <v>9.512</v>
+        <v>4.832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>411.68</v>
+        <v>375.74</v>
       </c>
       <c r="D47" t="n">
-        <v>477.98</v>
+        <v>426.96</v>
       </c>
       <c r="E47" t="n">
-        <v>6.452</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="48">
@@ -1340,109 +1340,109 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>273.52</v>
+        <v>426.96</v>
       </c>
       <c r="D48" t="n">
-        <v>351.78</v>
+        <v>475.46</v>
       </c>
       <c r="E48" t="n">
-        <v>7.632</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>584.16</v>
+        <v>475.46</v>
       </c>
       <c r="D49" t="n">
-        <v>625.36</v>
+        <v>565.95</v>
       </c>
       <c r="E49" t="n">
-        <v>26.58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>351.78</v>
+        <v>461.82</v>
       </c>
       <c r="D50" t="n">
-        <v>395.78</v>
+        <v>514.12</v>
       </c>
       <c r="E50" t="n">
-        <v>4.872</v>
+        <v>4.168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>382.58</v>
+        <v>378.38</v>
       </c>
       <c r="D51" t="n">
-        <v>430.96</v>
+        <v>457.04</v>
       </c>
       <c r="E51" t="n">
-        <v>6.784</v>
+        <v>3.336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>395.78</v>
+        <v>457.04</v>
       </c>
       <c r="D52" t="n">
-        <v>464.26</v>
+        <v>520.58</v>
       </c>
       <c r="E52" t="n">
-        <v>1.624</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>464.26</v>
+        <v>520.58</v>
       </c>
       <c r="D53" t="n">
-        <v>557.51</v>
+        <v>611.86</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1450,40 +1450,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>477.98</v>
+        <v>565.95</v>
       </c>
       <c r="D54" t="n">
-        <v>526.38</v>
+        <v>657.25</v>
       </c>
       <c r="E54" t="n">
-        <v>4.252</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>pond29</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>430.96</v>
-      </c>
-      <c r="D55" t="n">
-        <v>478.22</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.188</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
